--- a/tr/tr_kurumsal_meslek_listesi.xlsx
+++ b/tr/tr_kurumsal_meslek_listesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAKCIL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\corporate-job-list-kurumsal-meslek-listesi\tr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83430FF-1584-4245-BFEC-523D6CADC92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FA9C4-E0FD-4C9C-888B-DAEBE4392D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="408">
   <si>
     <t>Zoolog</t>
   </si>
@@ -1240,18 +1240,35 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Eczacı</t>
+  </si>
+  <si>
+    <t>Bilim İnsanı</t>
+  </si>
+  <si>
+    <t>Çiftçi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,14 +1299,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1573,19 +1593,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>403</v>
       </c>
@@ -1593,7 +1613,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1617,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1641,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1649,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1665,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1673,7 +1693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1697,7 +1717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1705,7 +1725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1721,7 +1741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1745,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1769,7 +1789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1777,7 +1797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1785,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1809,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1817,7 +1837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1825,7 +1845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1833,7 +1853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1857,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1865,7 +1885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1873,7 +1893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1881,7 +1901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1897,7 +1917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1905,7 +1925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1913,7 +1933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1921,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1937,7 +1957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1945,7 +1965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1953,7 +1973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1961,7 +1981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1977,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1985,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1993,7 +2013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2001,7 +2021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2009,7 +2029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2025,7 +2045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2049,7 +2069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2057,7 +2077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2081,7 +2101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2089,7 +2109,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2113,7 +2133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2121,7 +2141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2129,7 +2149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2137,7 +2157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2145,7 +2165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2153,7 +2173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2161,7 +2181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2169,7 +2189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2177,7 +2197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2201,7 +2221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2225,7 +2245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2241,7 +2261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2249,7 +2269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2257,7 +2277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2265,7 +2285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2273,7 +2293,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2313,7 +2333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2321,7 +2341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2329,7 +2349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2337,7 +2357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2361,7 +2381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2377,7 +2397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2393,7 +2413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2409,7 +2429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2417,7 +2437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2425,7 +2445,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2441,7 +2461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2457,7 +2477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2465,7 +2485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2473,7 +2493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2489,7 +2509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2505,7 +2525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2513,7 +2533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2529,7 +2549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2553,7 +2573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2561,7 +2581,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2593,7 +2613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2601,7 +2621,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2641,7 +2661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2649,7 +2669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2657,7 +2677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2665,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2673,7 +2693,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2681,7 +2701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2697,7 +2717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2721,7 +2741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2729,7 +2749,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2753,7 +2773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2761,7 +2781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2769,7 +2789,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2777,7 +2797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2793,7 +2813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2809,7 +2829,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2817,7 +2837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2841,7 +2861,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -2857,7 +2877,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2873,7 +2893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2881,7 +2901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -2889,7 +2909,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2897,7 +2917,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2905,7 +2925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -2921,7 +2941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -2929,7 +2949,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2937,7 +2957,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -2945,7 +2965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -2953,7 +2973,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -2969,7 +2989,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -2977,7 +2997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -2993,7 +3013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3009,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3017,7 +3037,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3025,7 +3045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3033,7 +3053,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3041,7 +3061,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3057,7 +3077,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3065,7 +3085,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3073,7 +3093,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3081,7 +3101,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3089,7 +3109,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3097,7 +3117,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3105,7 +3125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3121,7 +3141,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3129,7 +3149,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3137,7 +3157,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -3145,7 +3165,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3153,7 +3173,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3169,7 +3189,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3177,7 +3197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -3185,7 +3205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3193,7 +3213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -3217,7 +3237,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3225,7 +3245,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -3233,7 +3253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -3241,7 +3261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -3249,7 +3269,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -3257,7 +3277,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -3265,7 +3285,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -3281,7 +3301,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -3289,7 +3309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -3297,7 +3317,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -3305,7 +3325,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -3313,7 +3333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -3329,7 +3349,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -3337,7 +3357,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -3345,7 +3365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -3353,7 +3373,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -3361,7 +3381,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -3369,7 +3389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -3377,7 +3397,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -3385,7 +3405,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -3393,7 +3413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -3401,7 +3421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -3409,7 +3429,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -3417,7 +3437,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -3425,7 +3445,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -3441,7 +3461,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -3449,7 +3469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -3457,7 +3477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -3465,7 +3485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -3473,7 +3493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -3481,7 +3501,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -3489,7 +3509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -3513,7 +3533,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -3529,7 +3549,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -3537,7 +3557,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -3545,7 +3565,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -3553,7 +3573,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -3569,7 +3589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -3577,7 +3597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -3593,7 +3613,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -3601,7 +3621,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -3609,7 +3629,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -3617,7 +3637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -3625,7 +3645,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -3633,7 +3653,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -3649,7 +3669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -3657,7 +3677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -3665,7 +3685,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -3681,7 +3701,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -3689,7 +3709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3697,7 +3717,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3705,7 +3725,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -3713,7 +3733,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3721,7 +3741,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -3729,7 +3749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3737,7 +3757,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -3745,7 +3765,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3753,7 +3773,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3761,7 +3781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3777,7 +3797,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -3793,7 +3813,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3801,7 +3821,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -3809,7 +3829,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -3817,7 +3837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -3825,7 +3845,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -3833,7 +3853,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -3849,7 +3869,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -3857,7 +3877,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -3865,7 +3885,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -3873,7 +3893,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -3881,7 +3901,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -3889,7 +3909,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -3897,7 +3917,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -3905,7 +3925,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -3913,7 +3933,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -3921,7 +3941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -3929,7 +3949,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -3937,7 +3957,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -3945,7 +3965,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -3953,7 +3973,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -3961,7 +3981,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -3969,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -3977,7 +3997,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -3985,7 +4005,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -3993,7 +4013,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -4001,7 +4021,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -4009,7 +4029,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -4017,7 +4037,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -4025,7 +4045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -4033,7 +4053,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -4041,7 +4061,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -4049,7 +4069,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -4057,7 +4077,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -4065,7 +4085,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -4073,7 +4093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -4081,7 +4101,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -4089,7 +4109,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -4105,7 +4125,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -4113,7 +4133,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -4121,7 +4141,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -4129,7 +4149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -4137,7 +4157,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -4145,7 +4165,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -4153,7 +4173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -4161,7 +4181,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -4169,7 +4189,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -4185,7 +4205,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -4193,7 +4213,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -4201,7 +4221,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -4209,7 +4229,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -4217,7 +4237,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -4225,7 +4245,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -4233,7 +4253,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -4241,7 +4261,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -4249,7 +4269,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -4257,7 +4277,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -4273,7 +4293,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -4281,7 +4301,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -4289,7 +4309,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -4297,7 +4317,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -4305,7 +4325,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -4313,7 +4333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -4321,7 +4341,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -4337,7 +4357,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -4345,7 +4365,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -4353,7 +4373,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -4361,7 +4381,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -4369,7 +4389,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -4377,7 +4397,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -4385,7 +4405,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -4393,7 +4413,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -4401,7 +4421,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -4409,7 +4429,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -4417,7 +4437,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -4425,7 +4445,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -4433,7 +4453,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -4441,7 +4461,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -4457,7 +4477,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -4465,7 +4485,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -4473,7 +4493,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -4481,7 +4501,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -4489,7 +4509,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -4497,7 +4517,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -4505,7 +4525,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -4513,7 +4533,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -4521,7 +4541,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -4529,7 +4549,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -4537,7 +4557,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -4545,7 +4565,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -4553,7 +4573,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -4561,7 +4581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -4569,7 +4589,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -4577,7 +4597,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -4585,7 +4605,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -4593,7 +4613,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -4601,7 +4621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -4609,7 +4629,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -4617,7 +4637,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -4625,7 +4645,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -4641,7 +4661,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -4649,7 +4669,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -4657,7 +4677,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -4665,7 +4685,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -4673,7 +4693,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -4681,7 +4701,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -4689,7 +4709,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -4697,7 +4717,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -4705,7 +4725,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -4713,7 +4733,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -4721,7 +4741,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -4729,7 +4749,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -4737,7 +4757,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -4745,7 +4765,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -4753,7 +4773,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -4761,7 +4781,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -4769,7 +4789,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -4777,7 +4797,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -4785,7 +4805,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -4793,7 +4813,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -4801,7 +4821,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -4809,7 +4829,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -4817,7 +4837,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -4825,7 +4845,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -4833,7 +4853,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -4841,7 +4861,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -4849,7 +4869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -4857,7 +4877,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -4865,7 +4885,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -4873,7 +4893,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -4881,7 +4901,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -4889,7 +4909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -4897,7 +4917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -4905,7 +4925,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -4913,12 +4933,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
